--- a/data/pca/factorExposure/factorExposure_2017-12-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.008614979610029889</v>
+        <v>-0.008820618873674763</v>
       </c>
       <c r="C2">
-        <v>0.002254709335541903</v>
+        <v>-0.03330155931283874</v>
       </c>
       <c r="D2">
-        <v>-0.02640303724350118</v>
+        <v>0.02833641852672053</v>
       </c>
       <c r="E2">
-        <v>-0.06183965662171508</v>
+        <v>-0.02665293842891027</v>
       </c>
       <c r="F2">
-        <v>0.007405936830991571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03235896422387439</v>
+      </c>
+      <c r="G2">
+        <v>-0.0102554878916917</v>
+      </c>
+      <c r="H2">
+        <v>-0.01182171798512195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.07026101321414331</v>
+        <v>-0.06251137837344352</v>
       </c>
       <c r="C3">
-        <v>0.001879976060570686</v>
+        <v>-0.08679008803888151</v>
       </c>
       <c r="D3">
-        <v>0.05296903906149478</v>
+        <v>0.01324983066628751</v>
       </c>
       <c r="E3">
-        <v>-0.2435388681081733</v>
+        <v>-0.07326754085079032</v>
       </c>
       <c r="F3">
-        <v>0.05467315621341155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08316116735561259</v>
+      </c>
+      <c r="G3">
+        <v>-0.06421605836562955</v>
+      </c>
+      <c r="H3">
+        <v>0.003964006645585941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03713093880540293</v>
+        <v>-0.05112657449494065</v>
       </c>
       <c r="C4">
-        <v>-0.01825725245073751</v>
+        <v>-0.06095932220891771</v>
       </c>
       <c r="D4">
-        <v>-0.03459004706091053</v>
+        <v>0.0216261261849766</v>
       </c>
       <c r="E4">
-        <v>-0.03501184534350723</v>
+        <v>0.001645538600949682</v>
       </c>
       <c r="F4">
-        <v>-0.0308670275101195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01819805043021836</v>
+      </c>
+      <c r="G4">
+        <v>-0.03606031303028996</v>
+      </c>
+      <c r="H4">
+        <v>0.03061697580967321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.06362189950857812</v>
+        <v>-0.02731822075141833</v>
       </c>
       <c r="C6">
-        <v>-0.00912969926627194</v>
+        <v>-0.05848778440359472</v>
       </c>
       <c r="D6">
-        <v>-0.04775772637335535</v>
+        <v>0.01626910821562708</v>
       </c>
       <c r="E6">
-        <v>-0.02790929690667893</v>
+        <v>-0.003175302760534861</v>
       </c>
       <c r="F6">
-        <v>-0.04912218880979968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01725423730643949</v>
+      </c>
+      <c r="G6">
+        <v>-0.01980835327419669</v>
+      </c>
+      <c r="H6">
+        <v>0.00835881806619055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02618382823979163</v>
+        <v>-0.01579835051774357</v>
       </c>
       <c r="C7">
-        <v>-0.06946825346884464</v>
+        <v>-0.03759449802422347</v>
       </c>
       <c r="D7">
-        <v>0.002655851924156537</v>
+        <v>0.01233792529961603</v>
       </c>
       <c r="E7">
-        <v>-0.01006813913129914</v>
+        <v>0.01611807601440304</v>
       </c>
       <c r="F7">
-        <v>0.01423684967265389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.008031228646121965</v>
+      </c>
+      <c r="G7">
+        <v>-0.07281504773545767</v>
+      </c>
+      <c r="H7">
+        <v>0.0005815063869701625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01162889802665802</v>
+        <v>0.005719721518335834</v>
       </c>
       <c r="C8">
-        <v>-0.008025227299770963</v>
+        <v>-0.01224041324192688</v>
       </c>
       <c r="D8">
-        <v>-0.01948696312173438</v>
+        <v>0.003646799431477138</v>
       </c>
       <c r="E8">
-        <v>-0.03347301521048531</v>
+        <v>-0.01131345586436578</v>
       </c>
       <c r="F8">
-        <v>0.01335010177895283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02249444583004428</v>
+      </c>
+      <c r="G8">
+        <v>-0.02373934716407008</v>
+      </c>
+      <c r="H8">
+        <v>0.02139903197496753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03016857211755972</v>
+        <v>-0.02517311630819111</v>
       </c>
       <c r="C9">
-        <v>-0.01258932369077154</v>
+        <v>-0.0422309926456259</v>
       </c>
       <c r="D9">
-        <v>-0.02365067892897959</v>
+        <v>0.01511565668851056</v>
       </c>
       <c r="E9">
-        <v>-0.05397584105381294</v>
+        <v>0.001312680624568113</v>
       </c>
       <c r="F9">
-        <v>-0.02724216711859929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01930019751726608</v>
+      </c>
+      <c r="G9">
+        <v>-0.02805825569803672</v>
+      </c>
+      <c r="H9">
+        <v>-0.003415185172093599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.06948773549791794</v>
+        <v>-0.09665056580993768</v>
       </c>
       <c r="C10">
-        <v>0.02341514308371245</v>
+        <v>0.1764835385510475</v>
       </c>
       <c r="D10">
-        <v>0.1667645576367112</v>
+        <v>-0.01997814866622015</v>
       </c>
       <c r="E10">
-        <v>-0.01915438800492434</v>
+        <v>-0.0169369534719873</v>
       </c>
       <c r="F10">
-        <v>0.002513074751620679</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01298770506290918</v>
+      </c>
+      <c r="G10">
+        <v>-0.0346019336730584</v>
+      </c>
+      <c r="H10">
+        <v>-0.02782662187467649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02890593601813979</v>
+        <v>-0.03250518765996088</v>
       </c>
       <c r="C11">
-        <v>0.0008394622871690042</v>
+        <v>-0.05569703813224015</v>
       </c>
       <c r="D11">
-        <v>-0.04314778725529837</v>
+        <v>0.0008296567445608267</v>
       </c>
       <c r="E11">
-        <v>-0.01646112802108937</v>
+        <v>0.007305853828448011</v>
       </c>
       <c r="F11">
-        <v>-0.02331052450439229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02718150858742212</v>
+      </c>
+      <c r="G11">
+        <v>-0.007794192561307658</v>
+      </c>
+      <c r="H11">
+        <v>0.0003839661224305411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03648228711803671</v>
+        <v>-0.03271249946860492</v>
       </c>
       <c r="C12">
-        <v>-0.006725810045371542</v>
+        <v>-0.04901119776095827</v>
       </c>
       <c r="D12">
-        <v>-0.04118117049640913</v>
+        <v>0.005184293645012726</v>
       </c>
       <c r="E12">
-        <v>0.00833867770569191</v>
+        <v>0.01261647870407814</v>
       </c>
       <c r="F12">
-        <v>-0.00191403189514542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007373925132378081</v>
+      </c>
+      <c r="G12">
+        <v>-0.01313007648260608</v>
+      </c>
+      <c r="H12">
+        <v>-0.002737422871291348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02108720557885944</v>
+        <v>-0.009352363862456671</v>
       </c>
       <c r="C13">
-        <v>0.001579839374765883</v>
+        <v>-0.03046885503527235</v>
       </c>
       <c r="D13">
-        <v>-0.01613167007611531</v>
+        <v>0.02421921154717612</v>
       </c>
       <c r="E13">
-        <v>-0.04361981018829801</v>
+        <v>-0.01731759810348001</v>
       </c>
       <c r="F13">
-        <v>-0.01768818670379304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03194584948452174</v>
+      </c>
+      <c r="G13">
+        <v>-0.02226696646949059</v>
+      </c>
+      <c r="H13">
+        <v>0.01281428524592809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01501012185880659</v>
+        <v>-0.007623668612831076</v>
       </c>
       <c r="C14">
-        <v>-0.01465009236559041</v>
+        <v>-0.02658693931521959</v>
       </c>
       <c r="D14">
-        <v>-0.008699414706208027</v>
+        <v>0.008127367867344576</v>
       </c>
       <c r="E14">
-        <v>-0.02008155479029377</v>
+        <v>0.006997336379625563</v>
       </c>
       <c r="F14">
-        <v>0.01962187411098991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.002232908371577066</v>
+      </c>
+      <c r="G14">
+        <v>-0.03151382557734476</v>
+      </c>
+      <c r="H14">
+        <v>0.01776064466845452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02749066843349993</v>
+        <v>-0.02888723774430073</v>
       </c>
       <c r="C16">
-        <v>-0.004957551798202232</v>
+        <v>-0.04376443741193042</v>
       </c>
       <c r="D16">
-        <v>-0.04052739795138512</v>
+        <v>0.0005281507069819382</v>
       </c>
       <c r="E16">
-        <v>-0.01700495318321054</v>
+        <v>0.004478093511732594</v>
       </c>
       <c r="F16">
-        <v>-0.02848782824167557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01460962265071857</v>
+      </c>
+      <c r="G16">
+        <v>-0.01263645363633938</v>
+      </c>
+      <c r="H16">
+        <v>0.002536410169068466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02600995610092819</v>
+        <v>-0.0240692227720026</v>
       </c>
       <c r="C19">
-        <v>-0.003359976122067449</v>
+        <v>-0.05460507358627088</v>
       </c>
       <c r="D19">
-        <v>-0.03773952414427574</v>
+        <v>0.01474837577228465</v>
       </c>
       <c r="E19">
-        <v>-0.05269701394304691</v>
+        <v>-0.03188830732999996</v>
       </c>
       <c r="F19">
-        <v>-0.03960423076230901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04352878813879427</v>
+      </c>
+      <c r="G19">
+        <v>-0.03287626367175063</v>
+      </c>
+      <c r="H19">
+        <v>0.03716368514057784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004131701147540121</v>
+        <v>-0.007205953100340757</v>
       </c>
       <c r="C20">
-        <v>-0.002534946174386108</v>
+        <v>-0.03201530838816589</v>
       </c>
       <c r="D20">
-        <v>0.0008052007532170247</v>
+        <v>0.01269904196100762</v>
       </c>
       <c r="E20">
-        <v>-0.03008203208861647</v>
+        <v>-0.01637662325458802</v>
       </c>
       <c r="F20">
-        <v>0.007825100882763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01123543403682904</v>
+      </c>
+      <c r="G20">
+        <v>-0.02177955620540793</v>
+      </c>
+      <c r="H20">
+        <v>0.01092464818887371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03764095137032977</v>
+        <v>-0.01000914317725613</v>
       </c>
       <c r="C21">
-        <v>-0.0235744620736255</v>
+        <v>-0.0357512478041347</v>
       </c>
       <c r="D21">
-        <v>-0.01432526378851318</v>
+        <v>0.01571526230859951</v>
       </c>
       <c r="E21">
-        <v>-0.02562274901395763</v>
+        <v>-0.02210048939562486</v>
       </c>
       <c r="F21">
-        <v>-0.02014003044587769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02194923118637362</v>
+      </c>
+      <c r="G21">
+        <v>-0.0463017250949783</v>
+      </c>
+      <c r="H21">
+        <v>0.01716209567501835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02633950224948715</v>
+        <v>-0.02260216940859359</v>
       </c>
       <c r="C24">
-        <v>-0.002636047486402433</v>
+        <v>-0.04656940213232132</v>
       </c>
       <c r="D24">
-        <v>-0.03362844172884015</v>
+        <v>0.005815541741666551</v>
       </c>
       <c r="E24">
-        <v>-0.01491619153804227</v>
+        <v>0.00968173010748772</v>
       </c>
       <c r="F24">
-        <v>-0.0226342924352985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02220459727916696</v>
+      </c>
+      <c r="G24">
+        <v>-0.01096090797198242</v>
+      </c>
+      <c r="H24">
+        <v>-0.003796916201032611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04059181054685802</v>
+        <v>-0.04069291712104727</v>
       </c>
       <c r="C25">
-        <v>-0.0004066592443965762</v>
+        <v>-0.05530232688901169</v>
       </c>
       <c r="D25">
-        <v>-0.03252126337791999</v>
+        <v>0.009613181238564103</v>
       </c>
       <c r="E25">
-        <v>-0.02814038254714667</v>
+        <v>0.01699196462943794</v>
       </c>
       <c r="F25">
-        <v>-0.02858984449874353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01832218208830558</v>
+      </c>
+      <c r="G25">
+        <v>-0.0162407232440386</v>
+      </c>
+      <c r="H25">
+        <v>0.006124110915942288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.001612332033143532</v>
+        <v>-0.001306476846442674</v>
       </c>
       <c r="C26">
-        <v>-0.00908695374614611</v>
+        <v>-0.007136788887398591</v>
       </c>
       <c r="D26">
-        <v>-0.0001678844695857471</v>
+        <v>0.0238394593597357</v>
       </c>
       <c r="E26">
-        <v>-0.03166214088466494</v>
+        <v>-0.003319723971257572</v>
       </c>
       <c r="F26">
-        <v>0.02039797297261853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007350502923869618</v>
+      </c>
+      <c r="G26">
+        <v>-0.02101268307047085</v>
+      </c>
+      <c r="H26">
+        <v>0.008239335866044367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1057068120380011</v>
+        <v>-0.124329961408116</v>
       </c>
       <c r="C28">
-        <v>0.0327375574854149</v>
+        <v>0.2155385404836692</v>
       </c>
       <c r="D28">
-        <v>0.2353820768601588</v>
+        <v>-0.01157222617705465</v>
       </c>
       <c r="E28">
-        <v>-0.007274501673641911</v>
+        <v>-0.009511044625788834</v>
       </c>
       <c r="F28">
-        <v>0.007978033633208471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01241821866984167</v>
+      </c>
+      <c r="G28">
+        <v>-0.04955589400553461</v>
+      </c>
+      <c r="H28">
+        <v>-0.01183016937030952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01462704618121574</v>
+        <v>-0.01256685904433106</v>
       </c>
       <c r="C29">
-        <v>-0.01106110685637785</v>
+        <v>-0.02216499352421896</v>
       </c>
       <c r="D29">
-        <v>-0.01114755686398216</v>
+        <v>0.006929994730179155</v>
       </c>
       <c r="E29">
-        <v>-0.0199760722687824</v>
+        <v>0.005038361216925762</v>
       </c>
       <c r="F29">
-        <v>0.01849657453085229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.004184839987309453</v>
+      </c>
+      <c r="G29">
+        <v>-0.02472609092715756</v>
+      </c>
+      <c r="H29">
+        <v>0.02341107431452306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05011500864925723</v>
+        <v>-0.03228559857843747</v>
       </c>
       <c r="C30">
-        <v>0.04819756884070842</v>
+        <v>-0.07221255437706163</v>
       </c>
       <c r="D30">
-        <v>-0.06983107717553259</v>
+        <v>0.02690659613378376</v>
       </c>
       <c r="E30">
-        <v>-0.06690247388585592</v>
+        <v>-0.01639603329182136</v>
       </c>
       <c r="F30">
-        <v>-0.008181957730053639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04653270211189658</v>
+      </c>
+      <c r="G30">
+        <v>0.01365076428996401</v>
+      </c>
+      <c r="H30">
+        <v>0.0107517385371534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04793127452943881</v>
+        <v>-0.03909465474545726</v>
       </c>
       <c r="C31">
-        <v>-0.0141591031431754</v>
+        <v>-0.02803812192690637</v>
       </c>
       <c r="D31">
-        <v>-0.01713574016737584</v>
+        <v>0.002484456806111233</v>
       </c>
       <c r="E31">
-        <v>0.001419291033575496</v>
+        <v>0.0177754372134377</v>
       </c>
       <c r="F31">
-        <v>0.01400496384700616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02784468376266166</v>
+      </c>
+      <c r="G31">
+        <v>-0.02391574174929672</v>
+      </c>
+      <c r="H31">
+        <v>0.003241825712614908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0001275457512436901</v>
+        <v>-0.004184721095364686</v>
       </c>
       <c r="C32">
-        <v>-0.03014808967260513</v>
+        <v>-0.03315405403696113</v>
       </c>
       <c r="D32">
-        <v>-0.02466201445239288</v>
+        <v>-0.005357346855504721</v>
       </c>
       <c r="E32">
-        <v>-0.01664581783794063</v>
+        <v>-0.0134126452310141</v>
       </c>
       <c r="F32">
-        <v>-0.01143741544919189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07445241764930979</v>
+      </c>
+      <c r="G32">
+        <v>-0.04868740791480376</v>
+      </c>
+      <c r="H32">
+        <v>0.06704770421221522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03391804668457819</v>
+        <v>-0.02565461657143795</v>
       </c>
       <c r="C33">
-        <v>0.01827037688099798</v>
+        <v>-0.051063919862419</v>
       </c>
       <c r="D33">
-        <v>-0.03460244435974464</v>
+        <v>0.01354994068981071</v>
       </c>
       <c r="E33">
-        <v>-0.04321018756004079</v>
+        <v>-0.01396777606447248</v>
       </c>
       <c r="F33">
-        <v>0.01834722483100097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02491790602389415</v>
+      </c>
+      <c r="G33">
+        <v>-0.01413956000380926</v>
+      </c>
+      <c r="H33">
+        <v>-0.01437562956530159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02917450462317475</v>
+        <v>-0.04324947382472179</v>
       </c>
       <c r="C34">
-        <v>-0.01373828895377485</v>
+        <v>-0.0567159363316932</v>
       </c>
       <c r="D34">
-        <v>-0.04311807527364367</v>
+        <v>-0.00661449288424323</v>
       </c>
       <c r="E34">
-        <v>-0.01589052699191527</v>
+        <v>0.01712453340351905</v>
       </c>
       <c r="F34">
-        <v>-0.02697633536276007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02383482294130569</v>
+      </c>
+      <c r="G34">
+        <v>-0.02145050430914341</v>
+      </c>
+      <c r="H34">
+        <v>0.001617626238663955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01643263611743892</v>
+        <v>-0.009431264851133566</v>
       </c>
       <c r="C36">
-        <v>-0.00404251077137347</v>
+        <v>-0.004692692593121999</v>
       </c>
       <c r="D36">
-        <v>0.0001112312433841423</v>
+        <v>0.01088622831945346</v>
       </c>
       <c r="E36">
-        <v>-0.01760938010464533</v>
+        <v>0.00168141245884833</v>
       </c>
       <c r="F36">
-        <v>0.0009745354526117885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0004762239558130893</v>
+      </c>
+      <c r="G36">
+        <v>-0.01401940975551242</v>
+      </c>
+      <c r="H36">
+        <v>-0.001585570444863073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02185430358073456</v>
+        <v>-0.02736126182935492</v>
       </c>
       <c r="C38">
-        <v>1.00029957324143e-05</v>
+        <v>-0.01780431694907144</v>
       </c>
       <c r="D38">
-        <v>-0.01090892747096418</v>
+        <v>-0.008705020433805633</v>
       </c>
       <c r="E38">
-        <v>-0.04042185689989854</v>
+        <v>0.004798691922326007</v>
       </c>
       <c r="F38">
-        <v>-0.0009147785839790209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.008181648781711223</v>
+      </c>
+      <c r="G38">
+        <v>-0.02067765950868255</v>
+      </c>
+      <c r="H38">
+        <v>0.005614578792085125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02313137250548841</v>
+        <v>-0.02489833214808359</v>
       </c>
       <c r="C39">
-        <v>-0.01098071311412927</v>
+        <v>-0.08383524681935464</v>
       </c>
       <c r="D39">
-        <v>-0.06590409217768611</v>
+        <v>0.01137602764101515</v>
       </c>
       <c r="E39">
-        <v>-0.0484662520424433</v>
+        <v>-0.005065172776495526</v>
       </c>
       <c r="F39">
-        <v>-0.0389450517876626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04290035712014642</v>
+      </c>
+      <c r="G39">
+        <v>-0.01283959166795732</v>
+      </c>
+      <c r="H39">
+        <v>-0.01196315215899272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02832652235126265</v>
+        <v>-0.01707904403076107</v>
       </c>
       <c r="C40">
-        <v>-0.0004066729758756578</v>
+        <v>-0.03095941938191403</v>
       </c>
       <c r="D40">
-        <v>-0.04199824436480103</v>
+        <v>0.01254377373147911</v>
       </c>
       <c r="E40">
-        <v>-0.03626220857505588</v>
+        <v>-0.0100580472553736</v>
       </c>
       <c r="F40">
-        <v>-0.03793014767990988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02580393799244629</v>
+      </c>
+      <c r="G40">
+        <v>-0.01298693174334749</v>
+      </c>
+      <c r="H40">
+        <v>0.001175572153129846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01057968388247098</v>
+        <v>-0.01015050035944647</v>
       </c>
       <c r="C41">
-        <v>0.001096445610697203</v>
+        <v>0.004459461903648544</v>
       </c>
       <c r="D41">
-        <v>0.009973512490941331</v>
+        <v>0.002908822513845342</v>
       </c>
       <c r="E41">
-        <v>-0.005518212460172609</v>
+        <v>0.009052060537352006</v>
       </c>
       <c r="F41">
-        <v>0.003084882564844352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.000104948089186202</v>
+      </c>
+      <c r="G41">
+        <v>-0.008879794144083268</v>
+      </c>
+      <c r="H41">
+        <v>0.003485168342088736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1542447024854076</v>
+        <v>-0.03807082668070815</v>
       </c>
       <c r="C42">
-        <v>0.09779234727328666</v>
+        <v>-0.06539426939527548</v>
       </c>
       <c r="D42">
-        <v>-0.1161797362681724</v>
+        <v>0.1048361360382537</v>
       </c>
       <c r="E42">
-        <v>-0.186239094814323</v>
+        <v>-0.07980949537017513</v>
       </c>
       <c r="F42">
-        <v>0.1530481116862967</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1333948389336298</v>
+      </c>
+      <c r="G42">
+        <v>0.2209412815734444</v>
+      </c>
+      <c r="H42">
+        <v>-0.928308107132616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01671886564042911</v>
+        <v>-0.02587334717186848</v>
       </c>
       <c r="C43">
-        <v>0.003200287323811043</v>
+        <v>-0.006506293646807961</v>
       </c>
       <c r="D43">
-        <v>0.006501307788859522</v>
+        <v>0.002843286203162104</v>
       </c>
       <c r="E43">
-        <v>-0.009104918136900876</v>
+        <v>0.006303966917508614</v>
       </c>
       <c r="F43">
-        <v>0.008499640530017753</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.002923210133886397</v>
+      </c>
+      <c r="G43">
+        <v>-0.01092187853945076</v>
+      </c>
+      <c r="H43">
+        <v>0.002612478919477412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.009997580171172103</v>
+        <v>-0.01343128219383161</v>
       </c>
       <c r="C44">
-        <v>-0.01009690501867654</v>
+        <v>-0.04933415251491542</v>
       </c>
       <c r="D44">
-        <v>-0.01608310657770153</v>
+        <v>0.00656238091736808</v>
       </c>
       <c r="E44">
-        <v>-0.07187806335661923</v>
+        <v>-0.01581056785265498</v>
       </c>
       <c r="F44">
-        <v>-0.002952641555155272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02669214733119805</v>
+      </c>
+      <c r="G44">
+        <v>-0.02947314847430497</v>
+      </c>
+      <c r="H44">
+        <v>-0.01361348819368208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01003832746410649</v>
+        <v>-0.0005415077731742134</v>
       </c>
       <c r="C46">
-        <v>-0.004184679923387088</v>
+        <v>-0.01648237446173363</v>
       </c>
       <c r="D46">
-        <v>-0.02834344836913659</v>
+        <v>0.01128225733875327</v>
       </c>
       <c r="E46">
-        <v>-0.03961153662244313</v>
+        <v>0.006905888547407234</v>
       </c>
       <c r="F46">
-        <v>0.01909472948034982</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.007739277761012348</v>
+      </c>
+      <c r="G46">
+        <v>-0.01663447637510277</v>
+      </c>
+      <c r="H46">
+        <v>0.02544007989233856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07269474136188778</v>
+        <v>-0.06688535990646745</v>
       </c>
       <c r="C47">
-        <v>-0.0007208284854366903</v>
+        <v>-0.0623026830019681</v>
       </c>
       <c r="D47">
-        <v>-0.02838660260695803</v>
+        <v>-0.005443034678810064</v>
       </c>
       <c r="E47">
-        <v>0.03582103955130056</v>
+        <v>0.02112009733963344</v>
       </c>
       <c r="F47">
-        <v>0.04003051041744249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.06006114496048516</v>
+      </c>
+      <c r="G47">
+        <v>-0.01417110244316977</v>
+      </c>
+      <c r="H47">
+        <v>0.005664166490278854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.026673818540431</v>
+        <v>-0.01434997789059861</v>
       </c>
       <c r="C48">
-        <v>-0.004025893698477682</v>
+        <v>-0.01106958705425103</v>
       </c>
       <c r="D48">
-        <v>-0.004665174803187977</v>
+        <v>0.0007673270252760504</v>
       </c>
       <c r="E48">
-        <v>-0.01826097819071075</v>
+        <v>0.007089278857365388</v>
       </c>
       <c r="F48">
-        <v>-0.001893076047325941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01394870910294065</v>
+      </c>
+      <c r="G48">
+        <v>-0.01638519943379103</v>
+      </c>
+      <c r="H48">
+        <v>0.002906298364031893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07412471233829789</v>
+        <v>-0.07158188497719147</v>
       </c>
       <c r="C50">
-        <v>-0.03081471928394905</v>
+        <v>-0.06707424941232865</v>
       </c>
       <c r="D50">
-        <v>-0.04265158574302159</v>
+        <v>-0.004204262975500273</v>
       </c>
       <c r="E50">
-        <v>0.00668830713052655</v>
+        <v>0.02120567821332226</v>
       </c>
       <c r="F50">
-        <v>0.06459796924544467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05701391882102546</v>
+      </c>
+      <c r="G50">
+        <v>-0.0393001230907571</v>
+      </c>
+      <c r="H50">
+        <v>0.009082224306007924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01494415843423462</v>
+        <v>-0.01555991571662923</v>
       </c>
       <c r="C51">
-        <v>-0.006264190920367479</v>
+        <v>-0.02901534073227896</v>
       </c>
       <c r="D51">
-        <v>0.01768790838019885</v>
+        <v>0.008449224109944612</v>
       </c>
       <c r="E51">
-        <v>-0.0581497983327609</v>
+        <v>-0.007045030377730586</v>
       </c>
       <c r="F51">
-        <v>-0.00973814751479673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03630091258271549</v>
+      </c>
+      <c r="G51">
+        <v>-0.03617475065908358</v>
+      </c>
+      <c r="H51">
+        <v>0.006689086466577119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09633992697717333</v>
+        <v>-0.09337931216158656</v>
       </c>
       <c r="C53">
-        <v>-0.01758788329655916</v>
+        <v>-0.082255890038579</v>
       </c>
       <c r="D53">
-        <v>-0.05940508650682443</v>
+        <v>-0.006450358497127883</v>
       </c>
       <c r="E53">
-        <v>0.0580561715367346</v>
+        <v>0.0418276046448562</v>
       </c>
       <c r="F53">
-        <v>0.0270986861067508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06824793499383068</v>
+      </c>
+      <c r="G53">
+        <v>-0.01673331614804055</v>
+      </c>
+      <c r="H53">
+        <v>-0.001283326724566771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0276164338163336</v>
+        <v>-0.02813566971020132</v>
       </c>
       <c r="C54">
-        <v>-0.008284980878740291</v>
+        <v>-0.004937014500929461</v>
       </c>
       <c r="D54">
-        <v>0.0002024435944942482</v>
+        <v>-0.004851524670468855</v>
       </c>
       <c r="E54">
-        <v>-0.004083415656002991</v>
+        <v>0.001070488696973175</v>
       </c>
       <c r="F54">
-        <v>0.003126765594165943</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003818264420864443</v>
+      </c>
+      <c r="G54">
+        <v>-0.02432233330873195</v>
+      </c>
+      <c r="H54">
+        <v>0.02047016754403036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07011071987736595</v>
+        <v>-0.0685335170991217</v>
       </c>
       <c r="C55">
-        <v>-0.01057482988681268</v>
+        <v>-0.0729458457280104</v>
       </c>
       <c r="D55">
-        <v>-0.07349751344635502</v>
+        <v>-0.005328744542413946</v>
       </c>
       <c r="E55">
-        <v>0.03661469244267791</v>
+        <v>0.03097773094884034</v>
       </c>
       <c r="F55">
-        <v>0.05043431861645595</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06263063289828509</v>
+      </c>
+      <c r="G55">
+        <v>-0.005436343191479417</v>
+      </c>
+      <c r="H55">
+        <v>0.004195517848539994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.136953175097851</v>
+        <v>-0.1406899019169651</v>
       </c>
       <c r="C56">
-        <v>-0.011979700984059</v>
+        <v>-0.105210136538661</v>
       </c>
       <c r="D56">
-        <v>-0.08387475368520428</v>
+        <v>-0.01553567858581262</v>
       </c>
       <c r="E56">
-        <v>0.09032547114366632</v>
+        <v>0.0448359862614823</v>
       </c>
       <c r="F56">
-        <v>0.02335650670482859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1056885894652781</v>
+      </c>
+      <c r="G56">
+        <v>0.006194576530166063</v>
+      </c>
+      <c r="H56">
+        <v>-0.001589623023110085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04070136175672371</v>
+        <v>-0.01553380865916016</v>
       </c>
       <c r="C57">
-        <v>0.006292340258517938</v>
+        <v>-0.01299019208030579</v>
       </c>
       <c r="D57">
-        <v>-0.01924022103329805</v>
+        <v>0.0235836948735829</v>
       </c>
       <c r="E57">
-        <v>-0.04103713666999018</v>
+        <v>-0.03132757092382677</v>
       </c>
       <c r="F57">
-        <v>-0.01090777357959185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01663619315513182</v>
+      </c>
+      <c r="G57">
+        <v>-0.02242873386308403</v>
+      </c>
+      <c r="H57">
+        <v>-0.00440466963286696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1869241057113827</v>
+        <v>-0.06932814771174661</v>
       </c>
       <c r="C58">
-        <v>0.1315028743084462</v>
+        <v>-0.09082062957876895</v>
       </c>
       <c r="D58">
-        <v>-0.1351711508047643</v>
+        <v>0.02055966324164407</v>
       </c>
       <c r="E58">
-        <v>-0.5965509995337546</v>
+        <v>-0.9457581752539209</v>
       </c>
       <c r="F58">
-        <v>0.5586949208362723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2187300099006611</v>
+      </c>
+      <c r="G58">
+        <v>-0.06452185388167304</v>
+      </c>
+      <c r="H58">
+        <v>0.1016882459873463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1083725562142787</v>
+        <v>-0.1641172673147415</v>
       </c>
       <c r="C59">
-        <v>0.0521471436146087</v>
+        <v>0.2040211177036761</v>
       </c>
       <c r="D59">
-        <v>0.1932068227093996</v>
+        <v>-0.01908874880515185</v>
       </c>
       <c r="E59">
-        <v>-0.04284054938729356</v>
+        <v>-0.01635391511049945</v>
       </c>
       <c r="F59">
-        <v>-0.06015913401676187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01187431904050604</v>
+      </c>
+      <c r="G59">
+        <v>-0.02005955771737403</v>
+      </c>
+      <c r="H59">
+        <v>0.003309086180133128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2142503466662181</v>
+        <v>-0.2876791274328522</v>
       </c>
       <c r="C60">
-        <v>0.04708579954650712</v>
+        <v>-0.09557516376118609</v>
       </c>
       <c r="D60">
-        <v>0.009812192860865177</v>
+        <v>0.004551044476622187</v>
       </c>
       <c r="E60">
-        <v>-0.1574933614810111</v>
+        <v>-0.01692873102029378</v>
       </c>
       <c r="F60">
-        <v>-0.3937359465162175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3900221910337013</v>
+      </c>
+      <c r="G60">
+        <v>0.04258653845481932</v>
+      </c>
+      <c r="H60">
+        <v>0.04986034174607419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03481191683914277</v>
+        <v>-0.02740054835446731</v>
       </c>
       <c r="C61">
-        <v>-0.005332047673132227</v>
+        <v>-0.06570813078949821</v>
       </c>
       <c r="D61">
-        <v>-0.0549912963721661</v>
+        <v>0.004718468137624195</v>
       </c>
       <c r="E61">
-        <v>-0.03107621709725328</v>
+        <v>0.0002864241536440972</v>
       </c>
       <c r="F61">
-        <v>-0.0521612582414544</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02879363794272118</v>
+      </c>
+      <c r="G61">
+        <v>-0.01514225672858655</v>
+      </c>
+      <c r="H61">
+        <v>0.002174073409683925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0179794705738126</v>
+        <v>-0.01154193318482054</v>
       </c>
       <c r="C63">
-        <v>-0.007470434851042742</v>
+        <v>-0.02932516470497115</v>
       </c>
       <c r="D63">
-        <v>-0.02238796031163958</v>
+        <v>0.007513574205229967</v>
       </c>
       <c r="E63">
-        <v>-0.004561284190416551</v>
+        <v>0.01659112464656414</v>
       </c>
       <c r="F63">
-        <v>0.02472160858861504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005001890069317907</v>
+      </c>
+      <c r="G63">
+        <v>-0.01994526967119352</v>
+      </c>
+      <c r="H63">
+        <v>0.006315671487758794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05155823468597072</v>
+        <v>-0.04399766066410209</v>
       </c>
       <c r="C64">
-        <v>-0.00332268317766819</v>
+        <v>-0.03606105983070436</v>
       </c>
       <c r="D64">
-        <v>-0.03545849936552917</v>
+        <v>0.003878218511933294</v>
       </c>
       <c r="E64">
-        <v>-0.01462975964135541</v>
+        <v>0.01817666966110841</v>
       </c>
       <c r="F64">
-        <v>-0.01543451222100466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01539723891840765</v>
+      </c>
+      <c r="G64">
+        <v>-0.0108835312540809</v>
+      </c>
+      <c r="H64">
+        <v>-0.03208991491747689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.07098831907120536</v>
+        <v>-0.07374126155258173</v>
       </c>
       <c r="C65">
-        <v>-0.009284053001578549</v>
+        <v>-0.07604888427876924</v>
       </c>
       <c r="D65">
-        <v>-0.05067306545876266</v>
+        <v>0.01501188616000682</v>
       </c>
       <c r="E65">
-        <v>-0.02394835842078767</v>
+        <v>0.00213761754974775</v>
       </c>
       <c r="F65">
-        <v>-0.05571144194143569</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04167897358107724</v>
+      </c>
+      <c r="G65">
+        <v>-0.009354343296250948</v>
+      </c>
+      <c r="H65">
+        <v>0.01591617667442462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04690296304704829</v>
+        <v>-0.04482057764848575</v>
       </c>
       <c r="C66">
-        <v>0.006715309144635363</v>
+        <v>-0.1215621914754775</v>
       </c>
       <c r="D66">
-        <v>-0.08236185170507979</v>
+        <v>0.01061242830994493</v>
       </c>
       <c r="E66">
-        <v>-0.02824831077117446</v>
+        <v>-0.005076038543775472</v>
       </c>
       <c r="F66">
-        <v>-0.05020434445372943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05074474094772186</v>
+      </c>
+      <c r="G66">
+        <v>-0.002336410692736773</v>
+      </c>
+      <c r="H66">
+        <v>0.01033918013130991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03951011769449594</v>
+        <v>-0.05367019149322667</v>
       </c>
       <c r="C67">
-        <v>0.003311279090398076</v>
+        <v>-0.02140492274821306</v>
       </c>
       <c r="D67">
-        <v>-0.009387994870395914</v>
+        <v>-0.007841252057863232</v>
       </c>
       <c r="E67">
-        <v>-0.02014583270660129</v>
+        <v>0.01053824846463907</v>
       </c>
       <c r="F67">
-        <v>-0.01165176896201141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.005985985680895901</v>
+      </c>
+      <c r="G67">
+        <v>-0.02019038139094206</v>
+      </c>
+      <c r="H67">
+        <v>0.01099062282833913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09318497510706888</v>
+        <v>-0.1386401646447148</v>
       </c>
       <c r="C68">
-        <v>0.04989773077314524</v>
+        <v>0.2537296172714995</v>
       </c>
       <c r="D68">
-        <v>0.2174923326672491</v>
+        <v>-0.0002309624047640071</v>
       </c>
       <c r="E68">
-        <v>-0.005425350198317639</v>
+        <v>-0.0161841520400944</v>
       </c>
       <c r="F68">
-        <v>-0.01015212609836445</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01833995228342614</v>
+      </c>
+      <c r="G68">
+        <v>-0.01943456635142745</v>
+      </c>
+      <c r="H68">
+        <v>-0.01345145312970996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05336421243326968</v>
+        <v>-0.07022357098255476</v>
       </c>
       <c r="C69">
-        <v>-0.002767430547619358</v>
+        <v>-0.06017980670696698</v>
       </c>
       <c r="D69">
-        <v>-0.03843294908308609</v>
+        <v>-0.01026771924732053</v>
       </c>
       <c r="E69">
-        <v>0.0252481293398863</v>
+        <v>0.03677879861542781</v>
       </c>
       <c r="F69">
-        <v>0.01253927794907089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03539163292267729</v>
+      </c>
+      <c r="G69">
+        <v>-0.01063602111813704</v>
+      </c>
+      <c r="H69">
+        <v>0.01976033330781715</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08642097568239157</v>
+        <v>-0.137551137374228</v>
       </c>
       <c r="C71">
-        <v>0.03667951680747665</v>
+        <v>0.213293081661974</v>
       </c>
       <c r="D71">
-        <v>0.2192528098781577</v>
+        <v>-0.009239579695308456</v>
       </c>
       <c r="E71">
-        <v>-0.01957211238778213</v>
+        <v>-0.02174928984747807</v>
       </c>
       <c r="F71">
-        <v>0.03755897598720573</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0236516989320614</v>
+      </c>
+      <c r="G71">
+        <v>-0.03274063321552555</v>
+      </c>
+      <c r="H71">
+        <v>-0.02612086981093623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1324444585876312</v>
+        <v>-0.07666040484669844</v>
       </c>
       <c r="C72">
-        <v>0.005379884119805696</v>
+        <v>-0.08792695805225204</v>
       </c>
       <c r="D72">
-        <v>-0.1269170815443965</v>
+        <v>-0.009569163889928661</v>
       </c>
       <c r="E72">
-        <v>-0.1224163666168217</v>
+        <v>0.02159064431088936</v>
       </c>
       <c r="F72">
-        <v>-0.1933904856440447</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.03914701933971745</v>
+      </c>
+      <c r="G72">
+        <v>0.00565687524363679</v>
+      </c>
+      <c r="H72">
+        <v>0.01247312683545574</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2640639783228871</v>
+        <v>-0.3905574768450442</v>
       </c>
       <c r="C73">
-        <v>0.1066865941197166</v>
+        <v>-0.1223992776362066</v>
       </c>
       <c r="D73">
-        <v>-0.02966503916363692</v>
+        <v>0.009005022129562477</v>
       </c>
       <c r="E73">
-        <v>-0.2363144607699192</v>
+        <v>-0.06943484722556592</v>
       </c>
       <c r="F73">
-        <v>-0.3993414648121354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5353253299769973</v>
+      </c>
+      <c r="G73">
+        <v>0.08575050056264272</v>
+      </c>
+      <c r="H73">
+        <v>-0.06278382555939492</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1256772144752663</v>
+        <v>-0.1087905042469647</v>
       </c>
       <c r="C74">
-        <v>-0.002866660657871791</v>
+        <v>-0.1214332861374016</v>
       </c>
       <c r="D74">
-        <v>-0.08629280683318767</v>
+        <v>-0.01082080056249937</v>
       </c>
       <c r="E74">
-        <v>0.07630500662748819</v>
+        <v>0.04295957583952076</v>
       </c>
       <c r="F74">
-        <v>0.01034905929887108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07270836548427537</v>
+      </c>
+      <c r="G74">
+        <v>-0.007706662693962654</v>
+      </c>
+      <c r="H74">
+        <v>-0.002223439682248527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2595949904667101</v>
+        <v>-0.2509800010120203</v>
       </c>
       <c r="C75">
-        <v>0.00457845271686543</v>
+        <v>-0.1600161837020852</v>
       </c>
       <c r="D75">
-        <v>-0.13430607428438</v>
+        <v>-0.03178323477645185</v>
       </c>
       <c r="E75">
-        <v>0.1599679665649497</v>
+        <v>0.06123485315329912</v>
       </c>
       <c r="F75">
-        <v>0.01942247477666016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2168920823007309</v>
+      </c>
+      <c r="G75">
+        <v>0.0316720248963576</v>
+      </c>
+      <c r="H75">
+        <v>0.005204292508786686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2413505246400552</v>
+        <v>-0.1427345114211458</v>
       </c>
       <c r="C76">
-        <v>-0.01865126196537927</v>
+        <v>-0.1356391708235453</v>
       </c>
       <c r="D76">
-        <v>-0.1381864126748499</v>
+        <v>-0.02390399662890903</v>
       </c>
       <c r="E76">
-        <v>0.2237390200000866</v>
+        <v>0.07256465241759512</v>
       </c>
       <c r="F76">
-        <v>0.04322172638702711</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1446234728390088</v>
+      </c>
+      <c r="G76">
+        <v>0.0001514656246966397</v>
+      </c>
+      <c r="H76">
+        <v>0.0125370178948176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.05388941454048676</v>
+        <v>-0.0528945391040355</v>
       </c>
       <c r="C77">
-        <v>0.003231061290841648</v>
+        <v>-0.05934188905205691</v>
       </c>
       <c r="D77">
-        <v>-0.04577876800403932</v>
+        <v>0.01096626714430323</v>
       </c>
       <c r="E77">
-        <v>-0.06336240906043733</v>
+        <v>-0.02897903354276612</v>
       </c>
       <c r="F77">
-        <v>0.1131359229135402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.008865964664867665</v>
+      </c>
+      <c r="G77">
+        <v>-0.02803675774726683</v>
+      </c>
+      <c r="H77">
+        <v>-0.005420518671367842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03345879945306518</v>
+        <v>-0.03956114263635869</v>
       </c>
       <c r="C78">
-        <v>-0.008359915374488876</v>
+        <v>-0.05434724649858898</v>
       </c>
       <c r="D78">
-        <v>-0.04526178644117252</v>
+        <v>0.004783964420569361</v>
       </c>
       <c r="E78">
-        <v>-0.06428257827570809</v>
+        <v>-0.01537770714634666</v>
       </c>
       <c r="F78">
-        <v>-0.03421998094919115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04665929289030683</v>
+      </c>
+      <c r="G78">
+        <v>-0.02434640965857875</v>
+      </c>
+      <c r="H78">
+        <v>0.01227578755638225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2016387155543974</v>
+        <v>-0.06059484575095311</v>
       </c>
       <c r="C80">
-        <v>-0.9403197292040957</v>
+        <v>-0.08327652704791165</v>
       </c>
       <c r="D80">
-        <v>0.1584201589922214</v>
+        <v>0.01300939946625312</v>
       </c>
       <c r="E80">
-        <v>-0.1271589065774447</v>
+        <v>0.07263644423083508</v>
       </c>
       <c r="F80">
-        <v>0.02582965536760203</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02257167552436021</v>
+      </c>
+      <c r="G80">
+        <v>-0.9285426169448585</v>
+      </c>
+      <c r="H80">
+        <v>-0.2126939759791333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1976384007212819</v>
+        <v>-0.1462884336059176</v>
       </c>
       <c r="C81">
-        <v>-0.007909096766819487</v>
+        <v>-0.1028867121600765</v>
       </c>
       <c r="D81">
-        <v>-0.1013894954572833</v>
+        <v>-0.01808369512959933</v>
       </c>
       <c r="E81">
-        <v>0.122714976319476</v>
+        <v>0.04589368024661872</v>
       </c>
       <c r="F81">
-        <v>0.05762965104055336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1397549000746549</v>
+      </c>
+      <c r="G81">
+        <v>-0.006058330128962615</v>
+      </c>
+      <c r="H81">
+        <v>0.01096577268347407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.03546642831560712</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02806402882932483</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002092373752687214</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0197446043751173</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001928572814966843</v>
+      </c>
+      <c r="G82">
+        <v>0.000156916979150829</v>
+      </c>
+      <c r="H82">
+        <v>0.01640615422135636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03949612287253863</v>
+        <v>-0.02849887167249576</v>
       </c>
       <c r="C83">
-        <v>0.006692646852862002</v>
+        <v>-0.01803077561929393</v>
       </c>
       <c r="D83">
-        <v>-0.004441376909252039</v>
+        <v>0.004483657110339738</v>
       </c>
       <c r="E83">
-        <v>-0.03788785942660358</v>
+        <v>-0.02228820466221694</v>
       </c>
       <c r="F83">
-        <v>0.01242436748184121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02249912620313088</v>
+      </c>
+      <c r="G83">
+        <v>-0.02535285890192734</v>
+      </c>
+      <c r="H83">
+        <v>0.01140373954506139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2471998572181413</v>
+        <v>-0.2394332244068791</v>
       </c>
       <c r="C85">
-        <v>0.01138511703475678</v>
+        <v>-0.1690145062352506</v>
       </c>
       <c r="D85">
-        <v>-0.1574731567567867</v>
+        <v>-0.02155575972776295</v>
       </c>
       <c r="E85">
-        <v>0.1817936826006938</v>
+        <v>0.1080949302690678</v>
       </c>
       <c r="F85">
-        <v>0.04119610258223794</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2081001799153361</v>
+      </c>
+      <c r="G85">
+        <v>0.06522687736370227</v>
+      </c>
+      <c r="H85">
+        <v>0.006075123941091604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01320044324404887</v>
+        <v>-0.009349784073724908</v>
       </c>
       <c r="C86">
-        <v>-0.008675098992536222</v>
+        <v>-0.02782474263726591</v>
       </c>
       <c r="D86">
-        <v>-0.02792383951777518</v>
+        <v>0.009427473137408514</v>
       </c>
       <c r="E86">
-        <v>-0.05711676021222332</v>
+        <v>-0.01467747155285182</v>
       </c>
       <c r="F86">
-        <v>0.02125920497928007</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02359904263057698</v>
+      </c>
+      <c r="G86">
+        <v>-0.04698774712081716</v>
+      </c>
+      <c r="H86">
+        <v>-0.02739489863084266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02900924707740347</v>
+        <v>-0.01736788337109408</v>
       </c>
       <c r="C87">
-        <v>-0.006416704149348318</v>
+        <v>-0.02899160309062547</v>
       </c>
       <c r="D87">
-        <v>-0.03002895248736988</v>
+        <v>0.0108746108193541</v>
       </c>
       <c r="E87">
-        <v>-0.1045241295495378</v>
+        <v>-0.07576878260544657</v>
       </c>
       <c r="F87">
-        <v>-0.03390409653252379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06384487336462674</v>
+      </c>
+      <c r="G87">
+        <v>-0.03770614952598796</v>
+      </c>
+      <c r="H87">
+        <v>-0.006805397876195871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04806167234515047</v>
+        <v>-0.07775725352220866</v>
       </c>
       <c r="C88">
-        <v>0.007946516389641145</v>
+        <v>-0.05106917340945649</v>
       </c>
       <c r="D88">
-        <v>-0.006468624184931703</v>
+        <v>0.02039204737444787</v>
       </c>
       <c r="E88">
-        <v>-0.0004522980239876632</v>
+        <v>0.02140265588856835</v>
       </c>
       <c r="F88">
-        <v>-0.02500762430847013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.00969792214308041</v>
+      </c>
+      <c r="G88">
+        <v>-0.01932899531449041</v>
+      </c>
+      <c r="H88">
+        <v>0.02043933716597632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.177381203812457</v>
+        <v>-0.2390255822679242</v>
       </c>
       <c r="C89">
-        <v>0.101811761016355</v>
+        <v>0.3681450749834387</v>
       </c>
       <c r="D89">
-        <v>0.3788423145676489</v>
+        <v>-0.01318524128009324</v>
       </c>
       <c r="E89">
-        <v>0.01382625240029243</v>
+        <v>0.005729300071577709</v>
       </c>
       <c r="F89">
-        <v>-0.00121172708244336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02791785789522552</v>
+      </c>
+      <c r="G89">
+        <v>-0.02099282170288133</v>
+      </c>
+      <c r="H89">
+        <v>0.003047078691340899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1027114790245868</v>
+        <v>-0.1998379502601814</v>
       </c>
       <c r="C90">
-        <v>0.08887277211536072</v>
+        <v>0.3289311919561876</v>
       </c>
       <c r="D90">
-        <v>0.3267161768719957</v>
+        <v>-0.01470627425640656</v>
       </c>
       <c r="E90">
-        <v>0.05733614946878362</v>
+        <v>-0.007778025924491626</v>
       </c>
       <c r="F90">
-        <v>0.06099758421589196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04443748659417619</v>
+      </c>
+      <c r="G90">
+        <v>-0.002187596907282892</v>
+      </c>
+      <c r="H90">
+        <v>-0.00638654566755544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2681570357791735</v>
+        <v>-0.2051940639318718</v>
       </c>
       <c r="C91">
-        <v>0.004378298790953689</v>
+        <v>-0.1414614031796335</v>
       </c>
       <c r="D91">
-        <v>-0.1701282683937368</v>
+        <v>-0.02701960559559081</v>
       </c>
       <c r="E91">
-        <v>0.2378047249609123</v>
+        <v>0.08885537355382905</v>
       </c>
       <c r="F91">
-        <v>0.04251966481972069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1967753505294292</v>
+      </c>
+      <c r="G91">
+        <v>0.02241951593392618</v>
+      </c>
+      <c r="H91">
+        <v>0.003083783954471182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2562065579848012</v>
+        <v>-0.2329039030494447</v>
       </c>
       <c r="C92">
-        <v>0.09353563740138215</v>
+        <v>0.2546834382506767</v>
       </c>
       <c r="D92">
-        <v>0.3251345020865065</v>
+        <v>-0.05823042319210864</v>
       </c>
       <c r="E92">
-        <v>0.1512279642154235</v>
+        <v>-0.0007904260914037572</v>
       </c>
       <c r="F92">
-        <v>0.2489994673325012</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1414093964672832</v>
+      </c>
+      <c r="G92">
+        <v>-0.04979364570402788</v>
+      </c>
+      <c r="H92">
+        <v>0.009825599708227984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1559642676335151</v>
+        <v>-0.2257135494751511</v>
       </c>
       <c r="C93">
-        <v>0.1166330400145483</v>
+        <v>0.3244127049772039</v>
       </c>
       <c r="D93">
-        <v>0.3776288521742517</v>
+        <v>-0.02155068263714859</v>
       </c>
       <c r="E93">
-        <v>0.02588149118379751</v>
+        <v>-0.01850534851026527</v>
       </c>
       <c r="F93">
-        <v>0.005308422749484288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01557212548277336</v>
+      </c>
+      <c r="G93">
+        <v>0.002939585081630396</v>
+      </c>
+      <c r="H93">
+        <v>-0.0403124717566451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3180373384506515</v>
+        <v>-0.2760992670261537</v>
       </c>
       <c r="C94">
-        <v>0.04259277022278813</v>
+        <v>-0.1667217615480297</v>
       </c>
       <c r="D94">
-        <v>-0.139825512094219</v>
+        <v>-0.01533079314607219</v>
       </c>
       <c r="E94">
-        <v>0.2328205209464182</v>
+        <v>0.1006373389274006</v>
       </c>
       <c r="F94">
-        <v>0.1134968191360414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3600159709452935</v>
+      </c>
+      <c r="G94">
+        <v>0.1337252546628632</v>
+      </c>
+      <c r="H94">
+        <v>0.2094595234831868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08363507023116161</v>
+        <v>-0.07319987060781731</v>
       </c>
       <c r="C95">
-        <v>0.07644883700431931</v>
+        <v>-0.09359418343715459</v>
       </c>
       <c r="D95">
-        <v>-0.05039745976571871</v>
+        <v>-0.007121638416558491</v>
       </c>
       <c r="E95">
-        <v>-0.02229073725005373</v>
+        <v>-0.07638918411805531</v>
       </c>
       <c r="F95">
-        <v>-0.08764230322843669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1487147223293563</v>
+      </c>
+      <c r="G95">
+        <v>0.05807409672161332</v>
+      </c>
+      <c r="H95">
+        <v>-0.02359441559703769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2202859691960257</v>
+        <v>-0.2122892375307187</v>
       </c>
       <c r="C98">
-        <v>0.07080278159244638</v>
+        <v>-0.0545474682963569</v>
       </c>
       <c r="D98">
-        <v>0.02076485069070736</v>
+        <v>-0.02056220287373588</v>
       </c>
       <c r="E98">
-        <v>-0.2361953902162424</v>
+        <v>-0.06756616362880045</v>
       </c>
       <c r="F98">
-        <v>-0.3573484752868041</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2578630442900148</v>
+      </c>
+      <c r="G98">
+        <v>0.02704689488828318</v>
+      </c>
+      <c r="H98">
+        <v>-0.04710205645003496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.02890231443178215</v>
+        <v>-0.01402189434227689</v>
       </c>
       <c r="C101">
-        <v>-0.001699005034141966</v>
+        <v>-0.02373632260186695</v>
       </c>
       <c r="D101">
-        <v>-0.02306982276061283</v>
+        <v>0.008124277022443407</v>
       </c>
       <c r="E101">
-        <v>-0.1218277027650433</v>
+        <v>-0.03285061446049852</v>
       </c>
       <c r="F101">
-        <v>0.1657307606803859</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02287852991795833</v>
+      </c>
+      <c r="G101">
+        <v>-0.03101873732857693</v>
+      </c>
+      <c r="H101">
+        <v>0.02458931746560184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1330178010686305</v>
+        <v>-0.1172005288122616</v>
       </c>
       <c r="C102">
-        <v>0.0001117724368092391</v>
+        <v>-0.08123839806822684</v>
       </c>
       <c r="D102">
-        <v>-0.07014843389691332</v>
+        <v>-0.001092222342730494</v>
       </c>
       <c r="E102">
-        <v>0.1050166229370729</v>
+        <v>0.04683397226723417</v>
       </c>
       <c r="F102">
-        <v>0.04175696610586791</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06164776100552293</v>
+      </c>
+      <c r="G102">
+        <v>0.018942528675969</v>
+      </c>
+      <c r="H102">
+        <v>-0.0114292702872955</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03306679532851198</v>
+        <v>-0.006049309997257692</v>
       </c>
       <c r="C103">
-        <v>-0.01619894756564287</v>
+        <v>-0.006489634307092083</v>
       </c>
       <c r="D103">
-        <v>-0.02053409729482983</v>
+        <v>0.0003834816903584024</v>
       </c>
       <c r="E103">
-        <v>0.0128431725675087</v>
+        <v>0.001638020127483211</v>
       </c>
       <c r="F103">
-        <v>0.003955035942424629</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01146201234537241</v>
+      </c>
+      <c r="G103">
+        <v>-0.01407058674254395</v>
+      </c>
+      <c r="H103">
+        <v>-0.008936999385998382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.05126787639751543</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04727085475572725</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9852878509727362</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04359897618532055</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.0347207257182905</v>
+      </c>
+      <c r="G104">
+        <v>-0.0001394550942705852</v>
+      </c>
+      <c r="H104">
+        <v>0.09941752935162408</v>
       </c>
     </row>
   </sheetData>
